--- a/docs/FinalBurnDown/Cs3450FinalBurndown.xlsx
+++ b/docs/FinalBurnDown/Cs3450FinalBurndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usu\Downloads\Cs3450StandUps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usu\cs3450Group\FinalBurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3693D8F-9FE8-4D92-865C-251DA45E67CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CCCBC0-FA07-4866-A690-BD259B6781F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E7CBDC0-2583-4E3E-BF46-B249B2C3CDC7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Estimated time length(hours)</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>High level design(7)</t>
+  </si>
+  <si>
+    <t>Sprint 1 velocity</t>
+  </si>
+  <si>
+    <t>Sprint 2 velocity</t>
+  </si>
+  <si>
+    <t>Sprint 3 velocity</t>
+  </si>
+  <si>
+    <t>Sprint 4 velocity</t>
+  </si>
+  <si>
+    <t>Overall velocity</t>
   </si>
 </sst>
 </file>
@@ -310,10 +325,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -334,6 +349,60 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,7 +444,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -398,10 +467,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -422,6 +491,60 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,7 +586,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -486,10 +609,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -510,6 +633,60 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,10 +760,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -607,6 +784,60 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,9 +888,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -686,10 +915,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -710,35 +939,80 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$42</c:f>
+              <c:f>Sheet1!$F$45:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4290000000000003</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7149999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.714</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -760,9 +1034,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -789,10 +1061,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -813,35 +1085,80 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$36:$G$42</c:f>
+              <c:f>Sheet1!$G$45:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,9 +1180,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -892,10 +1207,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -916,6 +1231,60 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,9 +1326,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -986,10 +1353,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$42</c:f>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1010,6 +1377,60 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,6 +1460,416 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-F6AF-439A-A988-903810C3D4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>DevelopmentTarget</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.134999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.982999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.541999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.965999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.100999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.524999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.948999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.083999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.507999999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.931999999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.066999999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.490999999999985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.914999999999985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.049999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.473999999999982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.897999999999982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0329999999999817</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4569999999999812</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8809999999999811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-F6AF-439A-A988-903810C3D4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>DevelopmentActual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-F6AF-439A-A988-903810C3D4FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2242,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6C688B-EA2F-4CC3-9358-B6F441CFE84D}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,6 +3916,13 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <f>13/12</f>
+        <v>1.0833333333333333</v>
+      </c>
       <c r="E48">
         <v>7</v>
       </c>
@@ -3095,12 +3933,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <f>(C30+C43) / (B30 + B43)</f>
+        <v>1.0454545454545454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <f xml:space="preserve"> 65 / 57</f>
+        <v>1.1403508771929824</v>
+      </c>
       <c r="E50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>1.32258064516</v>
+      </c>
       <c r="E51">
         <v>0</v>
       </c>
@@ -3114,7 +3974,14 @@
         <v>4.2850000000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <f>SUM(B48:B51) / 4</f>
+        <v>1.1479298502852153</v>
+      </c>
       <c r="E52">
         <v>3</v>
       </c>
@@ -3128,7 +3995,7 @@
         <v>2.8570000000000002</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>5</v>
       </c>
@@ -3139,7 +4006,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>7</v>
       </c>
@@ -3152,6 +4019,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>